--- a/SGA/webadmin/docs/SGAUsers_Upload_Template.xlsx
+++ b/SGA/webadmin/docs/SGAUsers_Upload_Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680"/>
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="JobRole Master Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Membership Master Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Countries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="364">
   <si>
     <t xml:space="preserve">Email address </t>
   </si>
@@ -27,9 +28,6 @@
     <t>Last name</t>
   </si>
   <si>
-    <t>Company name</t>
-  </si>
-  <si>
     <t>Job Role ID</t>
   </si>
   <si>
@@ -72,71 +70,1052 @@
     <t>Non-Procuremnet: Trainee</t>
   </si>
   <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>viewPMPResult</t>
-  </si>
-  <si>
-    <t>takePMP</t>
-  </si>
-  <si>
-    <t>viewDMP</t>
-  </si>
-  <si>
-    <t>takeDMP</t>
-  </si>
-  <si>
-    <t>takeNP</t>
-  </si>
-  <si>
-    <t>viewNPResult</t>
-  </si>
-  <si>
-    <t>viewCMAResult</t>
-  </si>
-  <si>
-    <t>takeCMATest</t>
-  </si>
-  <si>
-    <t>Job Title</t>
-  </si>
-  <si>
-    <t>viewCMSA</t>
-  </si>
-  <si>
-    <t>takeCMSA</t>
-  </si>
-  <si>
-    <t>viewPkeResult</t>
-  </si>
-  <si>
-    <t>takePKE</t>
-  </si>
-  <si>
-    <t>viewPSAResult</t>
-  </si>
-  <si>
-    <t>takePSA</t>
-  </si>
-  <si>
-    <t>viewCMKE</t>
-  </si>
-  <si>
-    <t>takeCMKE</t>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Membership Accociation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AACAM        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ABCAL        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ADACI        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AERCE        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  APCADEC      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  APPI         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  APROCAL      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BME          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BMOE         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CAP          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CAPP         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CBEC         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CFLP         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CIPSMN       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DILF         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Forum Einkauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FZUP         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  HALPIM       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  HPI          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IAPI         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IFPSM        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IIMM         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IIPMM        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IPLMA        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IPPU         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IPSHK        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ISMM         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JMMA         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KISM         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LOGY         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MIPMM        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MIPS         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  NEVI         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  NIMA         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PASIA        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PISM         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PROCURE      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PROLOG       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PSCMT        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PSML         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SAPPP        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SCMA         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SILF         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SIMM         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SMIT         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SSCPA        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TUSAYDER     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ZNS          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Other - CIPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Other - ISM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   AACAM - Asociación Argentina de Compras Administracion de Materiales y Logistica         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   ABCAL - Association Belge des Cardes d’Achat et de Logistique         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   ADACI - Associazione Italiana Acquiste E Supply Management         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   AERCE - Associación Espanola de Professionales de Compras, Contractión y Aprovisionamientos         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   APCADEC - Portuguese association for Purchasing and Supply Management         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   APPI - Asosiasi Pengacara Pengadaan Indonesia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   APROCAL - Asociación de Profesionales en Compras, Abastecimiento y Logística, A.C.         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   BME - Bundesverband Materialwirtschaft, Einkauf und Logistik         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   BMOE - Bundesverband Materialwirtschaft, Einkauf und Logistik in Osterreich         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   CAP - Croatian Association of Purchasing         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   CAPP - Caribbean Association of Procurement Professionals         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   CBEC - Brazilian Council of Purchasing Executives         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   CFLP - China Federation of Logistics and Purchasing         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   CIPSMN - Chartered Institute of Purchasing &amp; Supply Management of Nigeria         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   DILF - Danish Purchasing and Logistics Forum         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                           Forum Einkauf - Forum Einkauf         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   FZUP - Federation of Purchases and Supply Management of Russia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   HALPIM - Hungarian Association of Logistics, Purchasing and Inventory Management         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   HPI - Hellenic Purchasing Institute         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   IAPI - Ikatan Ahli Pengadaan Indonesia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   IFPSM - International Federation of Purchasing &amp; Supply Management         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   IIMM - Indian Institute of Materials Management         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   IIPMM - Irish Institute of Purchasing and Materials Management         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   IPLMA - Israeli Purchasing &amp; Logistics Managers Association         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   IPPU - Institute of Procurement Professionals of Uganda         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   IPSHK - The Institute of Purchasing and Supply of Hong Kong         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  ISMM - Institute of Supply and Materials Management         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  JMMA - Japan Materials Management Association         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  KISM - Kenya Institute of Supplies Management         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  LOGY - Finnish Association of Purchasing and Logistics         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   MIPMM - Malaysian Institute of Purchasing &amp; Materials Management         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  MIPS - Malawi Institute of Procurement and Supply         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  NEVI - Nederlandse Vereniging voor Inkoop Management         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  NIMA - Norsk Forbund for Innkjøp og Logistikk (The Norwegian Association of Purchasing and Logistics)         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   PASIA - Procurement and Supply Institute of Asia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  PISM - Philippine Institute for Supply Management         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     PROCURE - procure.ch Swiss Association for Purchasing and Supply Management         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    PROLOG - Estonian Purchasing and Supply Chain Management Association         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   PSCMT - Purchasing and Supply Chain Management Association of Thailand         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  PSML - Polskie Stowarzyszenie Menedżerów Logistyki         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   SAPPP - Serbian Association of Professionals in Public Procurement         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  SCMA - Supply Chain Management Association         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  SILF - Swedish Purchasing and Logistic Association         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  SIMM - Singapore Institute of Materials Management         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  SMIT - Supply Management Institute, Taiwan         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   SSCPA - Serbian Supply Chain Professionals Association         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      TUSAYDER - TUSAYDER         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  ZNS - Zdruzenje nabavnikov Slovenije (Slovenian Purchasing Association)         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                          Other: CIPS – Chartered Institute of Purchasing &amp; Supply         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         Other: ISM – Institute of Supply Management         </t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Full Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aland Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Samoa         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anguilla         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antarctica         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua and Barbuda         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aruba         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermuda         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouvet Island         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Indian Ocean Territory         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Virgin Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayman Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">China         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christmas Island         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocos (Keeling) Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of Congo         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disputed Territory         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Timor         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falkland Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faroe Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federated States of Micronesia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">France         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Guyana         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Polynesia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Southern Territories         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibraltar         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenland         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadeloupe         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guam         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heard Island and McDonald Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">India         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq-Saudi Arabia Neutral Zone         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivory Coast         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyz Republic         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laos         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macau         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinique         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayotte         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands Antilles         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Caledonia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niue         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norfolk Island         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Korea         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Mariana Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestinian Territories         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitcairn Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Rico         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Helena and Dependencies         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts &amp;amp; Nevis         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Pierre and Miquelon         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Marino         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome and Principe         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Georgia and the South Sandwich Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korea         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spratly Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svalbard and Jan Mayen Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokelau         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turks and Caicos Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Virgin Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union of the Comoros         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Minor Outlying Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vatican City         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallis and Futuna Islands         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Sahara         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe         </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,7 +1668,9 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -820,7 +1801,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -855,7 +1835,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1031,31 +2010,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,180 +2037,47 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1247,132 +2086,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
@@ -1382,13 +2221,1664 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="112.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="K52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A242"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SGA/webadmin/docs/SGAUsers_Upload_Template.xlsx
+++ b/SGA/webadmin/docs/SGAUsers_Upload_Template.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="365">
   <si>
     <t xml:space="preserve">Email address </t>
   </si>
@@ -1109,6 +1109,9 @@
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe         </t>
+  </si>
+  <si>
+    <t>takePBA</t>
   </si>
 </sst>
 </file>
@@ -2011,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2027,7 +2030,7 @@
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2046,38 +2049,45 @@
       <c r="F1" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SGA/webadmin/docs/SGAUsers_Upload_Template.xlsx
+++ b/SGA/webadmin/docs/SGAUsers_Upload_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="367">
   <si>
     <t xml:space="preserve">Email address </t>
   </si>
@@ -1112,6 +1112,12 @@
   </si>
   <si>
     <t>takePBA</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Not a Member</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1657,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1673,6 +1679,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2016,7 +2025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -2234,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2653,8 +2662,11 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" t="s">
-        <v>69</v>
+      <c r="A52" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="K52" t="s">
         <v>69</v>
